--- a/src/output/data/combined_df_w_expert_gt.xlsx
+++ b/src/output/data/combined_df_w_expert_gt.xlsx
@@ -536,7 +536,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -590,7 +590,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -644,7 +644,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -762,7 +762,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -870,7 +870,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -924,7 +924,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -994,7 +994,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1134,7 +1134,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1210,7 +1210,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1432,7 +1432,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1486,7 +1486,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1628,7 +1628,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1688,7 +1688,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1800,7 +1800,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1908,7 +1908,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2088,7 +2088,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2142,7 +2142,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2196,7 +2196,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2382,7 +2382,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2504,7 +2504,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2700,7 +2700,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2754,7 +2754,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2808,7 +2808,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2936,7 +2936,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3264,7 +3264,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3374,7 +3374,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3486,7 +3486,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3540,7 +3540,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3594,7 +3594,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3824,7 +3824,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3882,7 +3882,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4002,7 +4002,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4086,7 +4086,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4194,7 +4194,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4252,7 +4252,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4306,7 +4306,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4360,7 +4360,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4472,7 +4472,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4586,7 +4586,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4640,7 +4640,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4694,7 +4694,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
